--- a/SPOT.xlsx
+++ b/SPOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA6DFB3-BFC5-439E-AE3A-4F4B232D6C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7C912-7BFC-4784-9F39-C1045644FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="1725" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{2D7630E8-571A-4F85-BA77-29E9E73C39F7}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" activeTab="1" xr2:uid="{2D7630E8-571A-4F85-BA77-29E9E73C39F7}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -233,8 +230,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -678,7 +676,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,7 +690,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="8">
         <v>655</v>
       </c>
     </row>
@@ -758,10 +756,10 @@
   <dimension ref="A1:DU34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
+      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,23 +1066,23 @@
       </c>
       <c r="O10" s="2">
         <f>N30*$V$17</f>
-        <v>443.03999999999996</v>
+        <v>295.36</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ref="P10:S10" si="12">O30*$V$17</f>
-        <v>563.19360810000001</v>
+        <v>370.44128540000008</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="12"/>
-        <v>725.61279631245009</v>
+        <v>472.16716523650018</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="12"/>
-        <v>932.5679197559125</v>
+        <v>601.92560908528094</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" si="12"/>
-        <v>1206.2582814135101</v>
+        <v>773.67303932461778</v>
       </c>
     </row>
     <row r="11" spans="1:117" x14ac:dyDescent="0.2">
@@ -1119,23 +1117,23 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" si="13"/>
-        <v>2355.9531000000006</v>
+        <v>2208.2731000000008</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" si="13"/>
-        <v>3184.6899649500024</v>
+        <v>2991.9376422500027</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="13"/>
-        <v>4258.3358733222703</v>
+        <v>4004.8902422463207</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="13"/>
-        <v>5631.4889229958389</v>
+        <v>5300.8466123252074</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" si="13"/>
-        <v>7391.5035400053521</v>
+        <v>6958.9182979164598</v>
       </c>
     </row>
     <row r="13" spans="1:117" x14ac:dyDescent="0.2">
@@ -1153,23 +1151,23 @@
       </c>
       <c r="O13" s="2">
         <f>O12*O19</f>
-        <v>353.39296500000006</v>
+        <v>331.24096500000013</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ref="P13:S13" si="14">P12*P19</f>
-        <v>477.70349474250031</v>
+        <v>448.79064633750039</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="14"/>
-        <v>809.08381593123136</v>
+        <v>760.92914602680094</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="14"/>
-        <v>1069.9828953692095</v>
+        <v>1007.1608563417894</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" si="14"/>
-        <v>1404.3856726010169</v>
+        <v>1322.1944766041274</v>
       </c>
     </row>
     <row r="14" spans="1:117" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1191,452 +1189,452 @@
       </c>
       <c r="O14" s="4">
         <f t="shared" ref="O14" si="16">O12-O13</f>
-        <v>2002.5601350000006</v>
+        <v>1877.0321350000006</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" ref="P14" si="17">P12-P13</f>
-        <v>2706.986470207502</v>
+        <v>2543.1469959125025</v>
       </c>
       <c r="Q14" s="4">
         <f t="shared" ref="Q14" si="18">Q12-Q13</f>
-        <v>3449.2520573910388</v>
+        <v>3243.9610962195197</v>
       </c>
       <c r="R14" s="4">
         <f t="shared" ref="R14" si="19">R12-R13</f>
-        <v>4561.5060276266295</v>
+        <v>4293.6857559834179</v>
       </c>
       <c r="S14" s="4">
         <f t="shared" ref="S14" si="20">S12-S13</f>
-        <v>5987.1178674043349</v>
+        <v>5636.7238213123328</v>
       </c>
       <c r="T14" s="4">
         <f>S14*(1+$V$18)</f>
-        <v>6166.7314034264655</v>
+        <v>5805.8255359517034</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" ref="U14:CF14" si="21">T14*(1+$V$18)</f>
-        <v>6351.7333455292592</v>
+        <v>5980.0003020302547</v>
       </c>
       <c r="V14" s="4">
         <f t="shared" si="21"/>
-        <v>6542.2853458951367</v>
+        <v>6159.4003110911626</v>
       </c>
       <c r="W14" s="4">
         <f t="shared" si="21"/>
-        <v>6738.5539062719909</v>
+        <v>6344.1823204238981</v>
       </c>
       <c r="X14" s="4">
         <f t="shared" si="21"/>
-        <v>6940.7105234601504</v>
+        <v>6534.507790036615</v>
       </c>
       <c r="Y14" s="4">
         <f t="shared" si="21"/>
-        <v>7148.9318391639554</v>
+        <v>6730.5430237377141</v>
       </c>
       <c r="Z14" s="4">
         <f t="shared" si="21"/>
-        <v>7363.399794338874</v>
+        <v>6932.4593144498458</v>
       </c>
       <c r="AA14" s="4">
         <f t="shared" si="21"/>
-        <v>7584.3017881690403</v>
+        <v>7140.4330938833409</v>
       </c>
       <c r="AB14" s="4">
         <f t="shared" si="21"/>
-        <v>7811.8308418141114</v>
+        <v>7354.6460866998414</v>
       </c>
       <c r="AC14" s="4">
         <f t="shared" si="21"/>
-        <v>8046.1857670685349</v>
+        <v>7575.2854693008367</v>
       </c>
       <c r="AD14" s="4">
         <f t="shared" si="21"/>
-        <v>8287.5713400805907</v>
+        <v>7802.5440333798624</v>
       </c>
       <c r="AE14" s="4">
         <f t="shared" si="21"/>
-        <v>8536.1984802830084</v>
+        <v>8036.620354381258</v>
       </c>
       <c r="AF14" s="4">
         <f t="shared" si="21"/>
-        <v>8792.284434691499</v>
+        <v>8277.7189650126966</v>
       </c>
       <c r="AG14" s="4">
         <f t="shared" si="21"/>
-        <v>9056.0529677322447</v>
+        <v>8526.0505339630781</v>
       </c>
       <c r="AH14" s="4">
         <f t="shared" si="21"/>
-        <v>9327.7345567642114</v>
+        <v>8781.8320499819711</v>
       </c>
       <c r="AI14" s="4">
         <f t="shared" si="21"/>
-        <v>9607.5665934671379</v>
+        <v>9045.2870114814305</v>
       </c>
       <c r="AJ14" s="4">
         <f t="shared" si="21"/>
-        <v>9895.7935912711528</v>
+        <v>9316.6456218258736</v>
       </c>
       <c r="AK14" s="4">
         <f t="shared" si="21"/>
-        <v>10192.667399009288</v>
+        <v>9596.1449904806504</v>
       </c>
       <c r="AL14" s="4">
         <f t="shared" si="21"/>
-        <v>10498.447420979566</v>
+        <v>9884.0293401950694</v>
       </c>
       <c r="AM14" s="4">
         <f t="shared" si="21"/>
-        <v>10813.400843608953</v>
+        <v>10180.550220400923</v>
       </c>
       <c r="AN14" s="4">
         <f t="shared" si="21"/>
-        <v>11137.802868917222</v>
+        <v>10485.96672701295</v>
       </c>
       <c r="AO14" s="4">
         <f t="shared" si="21"/>
-        <v>11471.93695498474</v>
+        <v>10800.545728823339</v>
       </c>
       <c r="AP14" s="4">
         <f t="shared" si="21"/>
-        <v>11816.095063634282</v>
+        <v>11124.562100688039</v>
       </c>
       <c r="AQ14" s="4">
         <f t="shared" si="21"/>
-        <v>12170.57791554331</v>
+        <v>11458.298963708681</v>
       </c>
       <c r="AR14" s="4">
         <f t="shared" si="21"/>
-        <v>12535.69525300961</v>
+        <v>11802.047932619942</v>
       </c>
       <c r="AS14" s="4">
         <f t="shared" si="21"/>
-        <v>12911.766110599898</v>
+        <v>12156.10937059854</v>
       </c>
       <c r="AT14" s="4">
         <f t="shared" si="21"/>
-        <v>13299.119093917894</v>
+        <v>12520.792651716496</v>
       </c>
       <c r="AU14" s="4">
         <f t="shared" si="21"/>
-        <v>13698.092666735431</v>
+        <v>12896.416431267991</v>
       </c>
       <c r="AV14" s="4">
         <f t="shared" si="21"/>
-        <v>14109.035446737495</v>
+        <v>13283.308924206032</v>
       </c>
       <c r="AW14" s="4">
         <f t="shared" si="21"/>
-        <v>14532.306510139621</v>
+        <v>13681.808191932214</v>
       </c>
       <c r="AX14" s="4">
         <f t="shared" si="21"/>
-        <v>14968.27570544381</v>
+        <v>14092.26243769018</v>
       </c>
       <c r="AY14" s="4">
         <f t="shared" si="21"/>
-        <v>15417.323976607124</v>
+        <v>14515.030310820886</v>
       </c>
       <c r="AZ14" s="4">
         <f t="shared" si="21"/>
-        <v>15879.843695905338</v>
+        <v>14950.481220145513</v>
       </c>
       <c r="BA14" s="4">
         <f t="shared" si="21"/>
-        <v>16356.239006782498</v>
+        <v>15398.995656749879</v>
       </c>
       <c r="BB14" s="4">
         <f t="shared" si="21"/>
-        <v>16846.926176985973</v>
+        <v>15860.965526452375</v>
       </c>
       <c r="BC14" s="4">
         <f t="shared" si="21"/>
-        <v>17352.333962295554</v>
+        <v>16336.794492245946</v>
       </c>
       <c r="BD14" s="4">
         <f t="shared" si="21"/>
-        <v>17872.903981164422</v>
+        <v>16826.898327013325</v>
       </c>
       <c r="BE14" s="4">
         <f t="shared" si="21"/>
-        <v>18409.091100599355</v>
+        <v>17331.705276823726</v>
       </c>
       <c r="BF14" s="4">
         <f t="shared" si="21"/>
-        <v>18961.363833617335</v>
+        <v>17851.65643512844</v>
       </c>
       <c r="BG14" s="4">
         <f t="shared" si="21"/>
-        <v>19530.204748625856</v>
+        <v>18387.206128182293</v>
       </c>
       <c r="BH14" s="4">
         <f t="shared" si="21"/>
-        <v>20116.110891084631</v>
+        <v>18938.822312027762</v>
       </c>
       <c r="BI14" s="4">
         <f t="shared" si="21"/>
-        <v>20719.594217817172</v>
+        <v>19506.986981388596</v>
       </c>
       <c r="BJ14" s="4">
         <f t="shared" si="21"/>
-        <v>21341.182044351688</v>
+        <v>20092.196590830255</v>
       </c>
       <c r="BK14" s="4">
         <f t="shared" si="21"/>
-        <v>21981.417505682239</v>
+        <v>20694.962488555164</v>
       </c>
       <c r="BL14" s="4">
         <f t="shared" si="21"/>
-        <v>22640.860030852706</v>
+        <v>21315.811363211818</v>
       </c>
       <c r="BM14" s="4">
         <f t="shared" si="21"/>
-        <v>23320.085831778288</v>
+        <v>21955.285704108173</v>
       </c>
       <c r="BN14" s="4">
         <f t="shared" si="21"/>
-        <v>24019.688406731639</v>
+        <v>22613.944275231421</v>
       </c>
       <c r="BO14" s="4">
         <f t="shared" si="21"/>
-        <v>24740.279058933589</v>
+        <v>23292.362603488364</v>
       </c>
       <c r="BP14" s="4">
         <f t="shared" si="21"/>
-        <v>25482.487430701596</v>
+        <v>23991.133481593017</v>
       </c>
       <c r="BQ14" s="4">
         <f t="shared" si="21"/>
-        <v>26246.962053622643</v>
+        <v>24710.867486040806</v>
       </c>
       <c r="BR14" s="4">
         <f t="shared" si="21"/>
-        <v>27034.370915231324</v>
+        <v>25452.19351062203</v>
       </c>
       <c r="BS14" s="4">
         <f t="shared" si="21"/>
-        <v>27845.402042688263</v>
+        <v>26215.75931594069</v>
       </c>
       <c r="BT14" s="4">
         <f t="shared" si="21"/>
-        <v>28680.764103968912</v>
+        <v>27002.232095418913</v>
       </c>
       <c r="BU14" s="4">
         <f t="shared" si="21"/>
-        <v>29541.187027087981</v>
+        <v>27812.299058281482</v>
       </c>
       <c r="BV14" s="4">
         <f t="shared" si="21"/>
-        <v>30427.422637900621</v>
+        <v>28646.668030029927</v>
       </c>
       <c r="BW14" s="4">
         <f t="shared" si="21"/>
-        <v>31340.245317037639</v>
+        <v>29506.068070930825</v>
       </c>
       <c r="BX14" s="4">
         <f t="shared" si="21"/>
-        <v>32280.452676548768</v>
+        <v>30391.250113058752</v>
       </c>
       <c r="BY14" s="4">
         <f t="shared" si="21"/>
-        <v>33248.866256845235</v>
+        <v>31302.987616450515</v>
       </c>
       <c r="BZ14" s="4">
         <f t="shared" si="21"/>
-        <v>34246.332244550591</v>
+        <v>32242.07724494403</v>
       </c>
       <c r="CA14" s="4">
         <f t="shared" si="21"/>
-        <v>35273.722211887107</v>
+        <v>33209.339562292349</v>
       </c>
       <c r="CB14" s="4">
         <f t="shared" si="21"/>
-        <v>36331.933878243719</v>
+        <v>34205.619749161124</v>
       </c>
       <c r="CC14" s="4">
         <f t="shared" si="21"/>
-        <v>37421.891894591034</v>
+        <v>35231.788341635962</v>
       </c>
       <c r="CD14" s="4">
         <f t="shared" si="21"/>
-        <v>38544.548651428762</v>
+        <v>36288.741991885043</v>
       </c>
       <c r="CE14" s="4">
         <f t="shared" si="21"/>
-        <v>39700.885110971627</v>
+        <v>37377.404251641594</v>
       </c>
       <c r="CF14" s="4">
         <f t="shared" si="21"/>
-        <v>40891.91166430078</v>
+        <v>38498.726379190841</v>
       </c>
       <c r="CG14" s="4">
         <f t="shared" ref="CG14:DM14" si="22">CF14*(1+$V$18)</f>
-        <v>42118.669014229803</v>
+        <v>39653.688170566566</v>
       </c>
       <c r="CH14" s="4">
         <f t="shared" si="22"/>
-        <v>43382.229084656698</v>
+        <v>40843.298815683564</v>
       </c>
       <c r="CI14" s="4">
         <f t="shared" si="22"/>
-        <v>44683.695957196396</v>
+        <v>42068.597780154072</v>
       </c>
       <c r="CJ14" s="4">
         <f t="shared" si="22"/>
-        <v>46024.206835912286</v>
+        <v>43330.655713558692</v>
       </c>
       <c r="CK14" s="4">
         <f t="shared" si="22"/>
-        <v>47404.933040989657</v>
+        <v>44630.57538496545</v>
       </c>
       <c r="CL14" s="4">
         <f t="shared" si="22"/>
-        <v>48827.08103221935</v>
+        <v>45969.492646514416</v>
       </c>
       <c r="CM14" s="4">
         <f t="shared" si="22"/>
-        <v>50291.89346318593</v>
+        <v>47348.577425909847</v>
       </c>
       <c r="CN14" s="4">
         <f t="shared" si="22"/>
-        <v>51800.65026708151</v>
+        <v>48769.034748687147</v>
       </c>
       <c r="CO14" s="4">
         <f t="shared" si="22"/>
-        <v>53354.669775093957</v>
+        <v>50232.105791147762</v>
       </c>
       <c r="CP14" s="4">
         <f t="shared" si="22"/>
-        <v>54955.309868346776</v>
+        <v>51739.068964882194</v>
       </c>
       <c r="CQ14" s="4">
         <f t="shared" si="22"/>
-        <v>56603.969164397182</v>
+        <v>53291.241033828657</v>
       </c>
       <c r="CR14" s="4">
         <f t="shared" si="22"/>
-        <v>58302.088239329096</v>
+        <v>54889.978264843521</v>
       </c>
       <c r="CS14" s="4">
         <f t="shared" si="22"/>
-        <v>60051.150886508971</v>
+        <v>56536.67761278883</v>
       </c>
       <c r="CT14" s="4">
         <f t="shared" si="22"/>
-        <v>61852.685413104242</v>
+        <v>58232.777941172499</v>
       </c>
       <c r="CU14" s="4">
         <f t="shared" si="22"/>
-        <v>63708.265975497372</v>
+        <v>59979.761279407678</v>
       </c>
       <c r="CV14" s="4">
         <f t="shared" si="22"/>
-        <v>65619.513954762297</v>
+        <v>61779.154117789913</v>
       </c>
       <c r="CW14" s="4">
         <f t="shared" si="22"/>
-        <v>67588.099373405174</v>
+        <v>63632.528741323615</v>
       </c>
       <c r="CX14" s="4">
         <f t="shared" si="22"/>
-        <v>69615.742354607326</v>
+        <v>65541.504603563328</v>
       </c>
       <c r="CY14" s="4">
         <f t="shared" si="22"/>
-        <v>71704.214625245542</v>
+        <v>67507.749741670224</v>
       </c>
       <c r="CZ14" s="4">
         <f t="shared" si="22"/>
-        <v>73855.341064002903</v>
+        <v>69532.982233920338</v>
       </c>
       <c r="DA14" s="4">
         <f t="shared" si="22"/>
-        <v>76071.001295922993</v>
+        <v>71618.971700937953</v>
       </c>
       <c r="DB14" s="4">
         <f t="shared" si="22"/>
-        <v>78353.131334800681</v>
+        <v>73767.5408519661</v>
       </c>
       <c r="DC14" s="4">
         <f t="shared" si="22"/>
-        <v>80703.725274844706</v>
+        <v>75980.567077525091</v>
       </c>
       <c r="DD14" s="4">
         <f t="shared" si="22"/>
-        <v>83124.837033090051</v>
+        <v>78259.984089850841</v>
       </c>
       <c r="DE14" s="4">
         <f t="shared" si="22"/>
-        <v>85618.582144082757</v>
+        <v>80607.783612546365</v>
       </c>
       <c r="DF14" s="4">
         <f t="shared" si="22"/>
-        <v>88187.139608405239</v>
+        <v>83026.017120922756</v>
       </c>
       <c r="DG14" s="4">
         <f t="shared" si="22"/>
-        <v>90832.753796657402</v>
+        <v>85516.797634550443</v>
       </c>
       <c r="DH14" s="4">
         <f t="shared" si="22"/>
-        <v>93557.736410557132</v>
+        <v>88082.301563586952</v>
       </c>
       <c r="DI14" s="4">
         <f t="shared" si="22"/>
-        <v>96364.468502873846</v>
+        <v>90724.770610494568</v>
       </c>
       <c r="DJ14" s="4">
         <f t="shared" si="22"/>
-        <v>99255.402557960057</v>
+        <v>93446.513728809412</v>
       </c>
       <c r="DK14" s="4">
         <f t="shared" si="22"/>
-        <v>102233.06463469887</v>
+        <v>96249.909140673699</v>
       </c>
       <c r="DL14" s="4">
         <f t="shared" si="22"/>
-        <v>105300.05657373983</v>
+        <v>99137.406414893907</v>
       </c>
       <c r="DM14" s="4">
         <f t="shared" si="22"/>
-        <v>108459.05827095202</v>
+        <v>102111.52860734073</v>
       </c>
     </row>
     <row r="15" spans="1:117" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <f>L14/L16</f>
         <v>-2.1956026674019382</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f t="shared" ref="M15:N15" si="23">M14/M16</f>
         <v>-2.7319598217036747</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <f t="shared" si="23"/>
         <v>5.4978501376878111</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <f t="shared" ref="O15" si="24">O14/O16</f>
-        <v>9.6746709261317001</v>
-      </c>
-      <c r="P15" s="9">
+        <v>9.0682261703463958</v>
+      </c>
+      <c r="P15" s="8">
         <f t="shared" ref="P15" si="25">P14/P16</f>
-        <v>13.077861105403652</v>
-      </c>
-      <c r="Q15" s="9">
+        <v>12.286327822177411</v>
+      </c>
+      <c r="Q15" s="8">
         <f t="shared" ref="Q15" si="26">Q14/Q16</f>
-        <v>16.663858434663698</v>
-      </c>
-      <c r="R15" s="9">
+        <v>15.672066748246387</v>
+      </c>
+      <c r="R15" s="8">
         <f t="shared" ref="R15" si="27">R14/R16</f>
-        <v>22.037325608129038</v>
-      </c>
-      <c r="S15" s="9">
+        <v>20.743445364430251</v>
+      </c>
+      <c r="S15" s="8">
         <f t="shared" ref="S15" si="28">S14/S16</f>
-        <v>28.924672048912193</v>
+        <v>27.231865410465879</v>
       </c>
     </row>
     <row r="16" spans="1:117" x14ac:dyDescent="0.2">
@@ -1672,8 +1670,8 @@
       <c r="U17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="7">
-        <v>0.06</v>
+      <c r="V17" s="9">
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:125" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1712,7 +1710,7 @@
       <c r="U18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V18" s="7">
+      <c r="V18" s="9">
         <v>0.03</v>
       </c>
     </row>
@@ -1750,7 +1748,7 @@
       <c r="U19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="9">
         <v>0.08</v>
       </c>
     </row>
@@ -1803,7 +1801,7 @@
       <c r="U21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="10">
         <f>V20/main!D3</f>
         <v>878.17033309210956</v>
       </c>
@@ -2452,23 +2450,23 @@
       </c>
       <c r="O30" s="2">
         <f>N30+O14</f>
-        <v>9386.5601349999997</v>
+        <v>9261.0321350000013</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ref="P30:S30" si="42">O30+P14</f>
-        <v>12093.546605207503</v>
+        <v>11804.179130912504</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" si="42"/>
-        <v>15542.798662598541</v>
+        <v>15048.140227132024</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="42"/>
-        <v>20104.30469022517</v>
+        <v>19341.825983115443</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" si="42"/>
-        <v>26091.422557629507</v>
+        <v>24978.549804427777</v>
       </c>
     </row>
     <row r="32" spans="1:125" x14ac:dyDescent="0.2">

--- a/SPOT.xlsx
+++ b/SPOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF7C912-7BFC-4784-9F39-C1045644FCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F81987-944E-4138-9AD3-EA934825F91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" activeTab="1" xr2:uid="{2D7630E8-571A-4F85-BA77-29E9E73C39F7}"/>
+    <workbookView xWindow="1320" yWindow="885" windowWidth="21945" windowHeight="13935" activeTab="1" xr2:uid="{2D7630E8-571A-4F85-BA77-29E9E73C39F7}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="44">
   <si>
     <t>SPOT</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>Revenue y/y</t>
-  </si>
-  <si>
-    <t>Tax Rate</t>
   </si>
   <si>
     <t>Gross Margin</t>
@@ -756,10 +753,10 @@
   <dimension ref="A1:DU34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -882,19 +879,19 @@
         <v>12860.663199999999</v>
       </c>
       <c r="P3" s="2">
-        <f t="shared" ref="P3:S3" si="2">P2*(1-P21)</f>
+        <f>P2*(1-P21)</f>
         <v>15097.478825239998</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" si="2"/>
+        <f>Q2*(1-Q21)</f>
         <v>17712.634885886666</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="2"/>
+        <f>R2*(1-R21)</f>
         <v>20767.486136481388</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" si="2"/>
+        <f>S2*(1-S21)</f>
         <v>24332.668130136852</v>
       </c>
     </row>
@@ -907,33 +904,39 @@
         <v>2926</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:S4" si="3">M2-M3</f>
+        <f t="shared" ref="M4:S4" si="2">M2-M3</f>
         <v>3397</v>
       </c>
       <c r="N4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4724</v>
       </c>
       <c r="O4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5790.2067999999999</v>
       </c>
       <c r="P4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7097.0564747600019</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8698.8621211133323</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10662.195301848609</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13068.652781475845</v>
       </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:117" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
@@ -948,6 +951,11 @@
       <c r="N5" s="2">
         <v>1486</v>
       </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:117" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
@@ -976,6 +984,7 @@
       <c r="N7" s="2">
         <v>481</v>
       </c>
+      <c r="T7" s="7"/>
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
@@ -986,11 +995,11 @@
         <v>3585</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8:N8" si="4">SUM(M5:M7)</f>
+        <f t="shared" ref="M8:N8" si="3">SUM(M5:M7)</f>
         <v>3843</v>
       </c>
       <c r="N8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3359</v>
       </c>
       <c r="O8" s="2">
@@ -998,19 +1007,19 @@
         <v>3877.2936999999993</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P8:S8" si="5">P2*P24</f>
+        <f>P2*P24</f>
         <v>4475.5601179099995</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="5"/>
+        <f>Q2*Q24</f>
         <v>5166.1390441035119</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="5"/>
+        <f>R2*R24</f>
         <v>5963.2742986086832</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" si="5"/>
+        <f>S2*S24</f>
         <v>6883.4075228840029</v>
       </c>
     </row>
@@ -1023,31 +1032,31 @@
         <v>-659</v>
       </c>
       <c r="M9" s="2">
-        <f t="shared" ref="M9:N9" si="6">M4-M8</f>
+        <f t="shared" ref="M9:N9" si="4">M4-M8</f>
         <v>-446</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1365</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" ref="O9" si="7">O4-O8</f>
+        <f t="shared" ref="O9" si="5">O4-O8</f>
         <v>1912.9131000000007</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" ref="P9" si="8">P4-P8</f>
+        <f t="shared" ref="P9" si="6">P4-P8</f>
         <v>2621.4963568500025</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9" si="9">Q4-Q8</f>
+        <f t="shared" ref="Q9" si="7">Q4-Q8</f>
         <v>3532.7230770098204</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" ref="R9" si="10">R4-R8</f>
+        <f t="shared" ref="R9" si="8">R4-R8</f>
         <v>4698.921003239926</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9" si="11">S4-S8</f>
+        <f t="shared" ref="S9" si="9">S4-S8</f>
         <v>6185.2452585918418</v>
       </c>
     </row>
@@ -1066,23 +1075,23 @@
       </c>
       <c r="O10" s="2">
         <f>N30*$V$17</f>
-        <v>295.36</v>
+        <v>147.68</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" ref="P10:S10" si="12">O30*$V$17</f>
-        <v>370.44128540000008</v>
+        <f>O30*$V$17</f>
+        <v>181.06160822000001</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="12"/>
-        <v>472.16716523650018</v>
+        <f>P30*$V$17</f>
+        <v>226.46304725413407</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="12"/>
-        <v>601.92560908528094</v>
+        <f>Q30*$V$17</f>
+        <v>287.36186246721013</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" si="12"/>
-        <v>773.67303932461778</v>
+        <f>R30*$V$17</f>
+        <v>368.13964489166574</v>
       </c>
     </row>
     <row r="11" spans="1:117" x14ac:dyDescent="0.2">
@@ -1108,32 +1117,32 @@
         <v>-370</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ref="M12:S12" si="13">M9+M10-M11</f>
+        <f t="shared" ref="M12:S12" si="10">M9+M10-M11</f>
         <v>-505</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>1341</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="13"/>
-        <v>2208.2731000000008</v>
+        <f t="shared" si="10"/>
+        <v>2060.5931000000005</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="13"/>
-        <v>2991.9376422500027</v>
+        <f t="shared" si="10"/>
+        <v>2802.5579650700024</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="13"/>
-        <v>4004.8902422463207</v>
+        <f t="shared" si="10"/>
+        <v>3759.1861242639543</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="13"/>
-        <v>5300.8466123252074</v>
+        <f t="shared" si="10"/>
+        <v>4986.2828657071359</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="13"/>
-        <v>6958.9182979164598</v>
+        <f t="shared" si="10"/>
+        <v>6553.3849034835075</v>
       </c>
     </row>
     <row r="13" spans="1:117" x14ac:dyDescent="0.2">
@@ -1150,24 +1159,24 @@
         <v>203</v>
       </c>
       <c r="O13" s="2">
-        <f>O12*O19</f>
-        <v>331.24096500000013</v>
+        <f>O12*0.19</f>
+        <v>391.51268900000008</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:S13" si="14">P12*P19</f>
-        <v>448.79064633750039</v>
+        <f t="shared" ref="P13:S13" si="11">P12*0.19</f>
+        <v>532.48601336330046</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="14"/>
-        <v>760.92914602680094</v>
+        <f t="shared" si="11"/>
+        <v>714.24536361015134</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="14"/>
-        <v>1007.1608563417894</v>
+        <f t="shared" si="11"/>
+        <v>947.39374448435581</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" si="14"/>
-        <v>1322.1944766041274</v>
+        <f t="shared" si="11"/>
+        <v>1245.1431316618664</v>
       </c>
     </row>
     <row r="14" spans="1:117" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1180,424 +1189,424 @@
         <v>-430</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" ref="M14:N14" si="15">M12-M13</f>
+        <f t="shared" ref="M14:N14" si="12">M12-M13</f>
         <v>-532</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>1138</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" ref="O14" si="16">O12-O13</f>
-        <v>1877.0321350000006</v>
+        <f t="shared" ref="O14" si="13">O12-O13</f>
+        <v>1669.0804110000004</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" ref="P14" si="17">P12-P13</f>
-        <v>2543.1469959125025</v>
+        <f t="shared" ref="P14" si="14">P12-P13</f>
+        <v>2270.0719517067018</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" ref="Q14" si="18">Q12-Q13</f>
-        <v>3243.9610962195197</v>
+        <f t="shared" ref="Q14" si="15">Q12-Q13</f>
+        <v>3044.940760653803</v>
       </c>
       <c r="R14" s="4">
-        <f t="shared" ref="R14" si="19">R12-R13</f>
-        <v>4293.6857559834179</v>
+        <f t="shared" ref="R14" si="16">R12-R13</f>
+        <v>4038.88912122278</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" ref="S14" si="20">S12-S13</f>
-        <v>5636.7238213123328</v>
+        <f t="shared" ref="S14" si="17">S12-S13</f>
+        <v>5308.2417718216411</v>
       </c>
       <c r="T14" s="4">
-        <f>S14*(1+$V$18)</f>
-        <v>5805.8255359517034</v>
+        <f t="shared" ref="T14:AY14" si="18">S14*(1+$V$18)</f>
+        <v>5361.3241895398578</v>
       </c>
       <c r="U14" s="4">
-        <f t="shared" ref="U14:CF14" si="21">T14*(1+$V$18)</f>
-        <v>5980.0003020302547</v>
+        <f t="shared" si="18"/>
+        <v>5414.9374314352563</v>
       </c>
       <c r="V14" s="4">
-        <f t="shared" si="21"/>
-        <v>6159.4003110911626</v>
+        <f t="shared" si="18"/>
+        <v>5469.0868057496091</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" si="21"/>
-        <v>6344.1823204238981</v>
+        <f t="shared" si="18"/>
+        <v>5523.7776738071052</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="21"/>
-        <v>6534.507790036615</v>
+        <f t="shared" si="18"/>
+        <v>5579.0154505451765</v>
       </c>
       <c r="Y14" s="4">
-        <f t="shared" si="21"/>
-        <v>6730.5430237377141</v>
+        <f t="shared" si="18"/>
+        <v>5634.8056050506284</v>
       </c>
       <c r="Z14" s="4">
-        <f t="shared" si="21"/>
-        <v>6932.4593144498458</v>
+        <f t="shared" si="18"/>
+        <v>5691.1536611011352</v>
       </c>
       <c r="AA14" s="4">
-        <f t="shared" si="21"/>
-        <v>7140.4330938833409</v>
+        <f t="shared" si="18"/>
+        <v>5748.065197712147</v>
       </c>
       <c r="AB14" s="4">
-        <f t="shared" si="21"/>
-        <v>7354.6460866998414</v>
+        <f t="shared" si="18"/>
+        <v>5805.5458496892688</v>
       </c>
       <c r="AC14" s="4">
-        <f t="shared" si="21"/>
-        <v>7575.2854693008367</v>
+        <f t="shared" si="18"/>
+        <v>5863.601308186162</v>
       </c>
       <c r="AD14" s="4">
-        <f t="shared" si="21"/>
-        <v>7802.5440333798624</v>
+        <f t="shared" si="18"/>
+        <v>5922.2373212680241</v>
       </c>
       <c r="AE14" s="4">
-        <f t="shared" si="21"/>
-        <v>8036.620354381258</v>
+        <f t="shared" si="18"/>
+        <v>5981.4596944807045</v>
       </c>
       <c r="AF14" s="4">
-        <f t="shared" si="21"/>
-        <v>8277.7189650126966</v>
+        <f t="shared" si="18"/>
+        <v>6041.2742914255114</v>
       </c>
       <c r="AG14" s="4">
-        <f t="shared" si="21"/>
-        <v>8526.0505339630781</v>
+        <f t="shared" si="18"/>
+        <v>6101.6870343397668</v>
       </c>
       <c r="AH14" s="4">
-        <f t="shared" si="21"/>
-        <v>8781.8320499819711</v>
+        <f t="shared" si="18"/>
+        <v>6162.7039046831642</v>
       </c>
       <c r="AI14" s="4">
-        <f t="shared" si="21"/>
-        <v>9045.2870114814305</v>
+        <f t="shared" si="18"/>
+        <v>6224.3309437299959</v>
       </c>
       <c r="AJ14" s="4">
-        <f t="shared" si="21"/>
-        <v>9316.6456218258736</v>
+        <f t="shared" si="18"/>
+        <v>6286.5742531672959</v>
       </c>
       <c r="AK14" s="4">
-        <f t="shared" si="21"/>
-        <v>9596.1449904806504</v>
+        <f t="shared" si="18"/>
+        <v>6349.4399956989691</v>
       </c>
       <c r="AL14" s="4">
-        <f t="shared" si="21"/>
-        <v>9884.0293401950694</v>
+        <f t="shared" si="18"/>
+        <v>6412.9343956559587</v>
       </c>
       <c r="AM14" s="4">
-        <f t="shared" si="21"/>
-        <v>10180.550220400923</v>
+        <f t="shared" si="18"/>
+        <v>6477.0637396125185</v>
       </c>
       <c r="AN14" s="4">
-        <f t="shared" si="21"/>
-        <v>10485.96672701295</v>
+        <f t="shared" si="18"/>
+        <v>6541.834377008644</v>
       </c>
       <c r="AO14" s="4">
-        <f t="shared" si="21"/>
-        <v>10800.545728823339</v>
+        <f t="shared" si="18"/>
+        <v>6607.2527207787307</v>
       </c>
       <c r="AP14" s="4">
-        <f t="shared" si="21"/>
-        <v>11124.562100688039</v>
+        <f t="shared" si="18"/>
+        <v>6673.3252479865178</v>
       </c>
       <c r="AQ14" s="4">
-        <f t="shared" si="21"/>
-        <v>11458.298963708681</v>
+        <f t="shared" si="18"/>
+        <v>6740.0585004663826</v>
       </c>
       <c r="AR14" s="4">
-        <f t="shared" si="21"/>
-        <v>11802.047932619942</v>
+        <f t="shared" si="18"/>
+        <v>6807.4590854710468</v>
       </c>
       <c r="AS14" s="4">
-        <f t="shared" si="21"/>
-        <v>12156.10937059854</v>
+        <f t="shared" si="18"/>
+        <v>6875.5336763257574</v>
       </c>
       <c r="AT14" s="4">
-        <f t="shared" si="21"/>
-        <v>12520.792651716496</v>
+        <f t="shared" si="18"/>
+        <v>6944.2890130890146</v>
       </c>
       <c r="AU14" s="4">
-        <f t="shared" si="21"/>
-        <v>12896.416431267991</v>
+        <f t="shared" si="18"/>
+        <v>7013.7319032199048</v>
       </c>
       <c r="AV14" s="4">
-        <f t="shared" si="21"/>
-        <v>13283.308924206032</v>
+        <f t="shared" si="18"/>
+        <v>7083.869222252104</v>
       </c>
       <c r="AW14" s="4">
-        <f t="shared" si="21"/>
-        <v>13681.808191932214</v>
+        <f t="shared" si="18"/>
+        <v>7154.7079144746249</v>
       </c>
       <c r="AX14" s="4">
-        <f t="shared" si="21"/>
-        <v>14092.26243769018</v>
+        <f t="shared" si="18"/>
+        <v>7226.2549936193709</v>
       </c>
       <c r="AY14" s="4">
-        <f t="shared" si="21"/>
-        <v>14515.030310820886</v>
+        <f t="shared" si="18"/>
+        <v>7298.5175435555648</v>
       </c>
       <c r="AZ14" s="4">
-        <f t="shared" si="21"/>
-        <v>14950.481220145513</v>
+        <f t="shared" ref="AZ14:CE14" si="19">AY14*(1+$V$18)</f>
+        <v>7371.5027189911207</v>
       </c>
       <c r="BA14" s="4">
-        <f t="shared" si="21"/>
-        <v>15398.995656749879</v>
+        <f t="shared" si="19"/>
+        <v>7445.2177461810315</v>
       </c>
       <c r="BB14" s="4">
-        <f t="shared" si="21"/>
-        <v>15860.965526452375</v>
+        <f t="shared" si="19"/>
+        <v>7519.6699236428422</v>
       </c>
       <c r="BC14" s="4">
-        <f t="shared" si="21"/>
-        <v>16336.794492245946</v>
+        <f t="shared" si="19"/>
+        <v>7594.8666228792708</v>
       </c>
       <c r="BD14" s="4">
-        <f t="shared" si="21"/>
-        <v>16826.898327013325</v>
+        <f t="shared" si="19"/>
+        <v>7670.8152891080636</v>
       </c>
       <c r="BE14" s="4">
-        <f t="shared" si="21"/>
-        <v>17331.705276823726</v>
+        <f t="shared" si="19"/>
+        <v>7747.5234419991439</v>
       </c>
       <c r="BF14" s="4">
-        <f t="shared" si="21"/>
-        <v>17851.65643512844</v>
+        <f t="shared" si="19"/>
+        <v>7824.9986764191353</v>
       </c>
       <c r="BG14" s="4">
-        <f t="shared" si="21"/>
-        <v>18387.206128182293</v>
+        <f t="shared" si="19"/>
+        <v>7903.2486631833272</v>
       </c>
       <c r="BH14" s="4">
-        <f t="shared" si="21"/>
-        <v>18938.822312027762</v>
+        <f t="shared" si="19"/>
+        <v>7982.2811498151605</v>
       </c>
       <c r="BI14" s="4">
-        <f t="shared" si="21"/>
-        <v>19506.986981388596</v>
+        <f t="shared" si="19"/>
+        <v>8062.1039613133125</v>
       </c>
       <c r="BJ14" s="4">
-        <f t="shared" si="21"/>
-        <v>20092.196590830255</v>
+        <f t="shared" si="19"/>
+        <v>8142.7250009264453</v>
       </c>
       <c r="BK14" s="4">
-        <f t="shared" si="21"/>
-        <v>20694.962488555164</v>
+        <f t="shared" si="19"/>
+        <v>8224.1522509357092</v>
       </c>
       <c r="BL14" s="4">
-        <f t="shared" si="21"/>
-        <v>21315.811363211818</v>
+        <f t="shared" si="19"/>
+        <v>8306.3937734450665</v>
       </c>
       <c r="BM14" s="4">
-        <f t="shared" si="21"/>
-        <v>21955.285704108173</v>
+        <f t="shared" si="19"/>
+        <v>8389.457711179517</v>
       </c>
       <c r="BN14" s="4">
-        <f t="shared" si="21"/>
-        <v>22613.944275231421</v>
+        <f t="shared" si="19"/>
+        <v>8473.352288291313</v>
       </c>
       <c r="BO14" s="4">
-        <f t="shared" si="21"/>
-        <v>23292.362603488364</v>
+        <f t="shared" si="19"/>
+        <v>8558.0858111742255</v>
       </c>
       <c r="BP14" s="4">
-        <f t="shared" si="21"/>
-        <v>23991.133481593017</v>
+        <f t="shared" si="19"/>
+        <v>8643.6666692859671</v>
       </c>
       <c r="BQ14" s="4">
-        <f t="shared" si="21"/>
-        <v>24710.867486040806</v>
+        <f t="shared" si="19"/>
+        <v>8730.1033359788271</v>
       </c>
       <c r="BR14" s="4">
-        <f t="shared" si="21"/>
-        <v>25452.19351062203</v>
+        <f t="shared" si="19"/>
+        <v>8817.4043693386157</v>
       </c>
       <c r="BS14" s="4">
-        <f t="shared" si="21"/>
-        <v>26215.75931594069</v>
+        <f t="shared" si="19"/>
+        <v>8905.5784130320026</v>
       </c>
       <c r="BT14" s="4">
-        <f t="shared" si="21"/>
-        <v>27002.232095418913</v>
+        <f t="shared" si="19"/>
+        <v>8994.6341971623224</v>
       </c>
       <c r="BU14" s="4">
-        <f t="shared" si="21"/>
-        <v>27812.299058281482</v>
+        <f t="shared" si="19"/>
+        <v>9084.5805391339454</v>
       </c>
       <c r="BV14" s="4">
-        <f t="shared" si="21"/>
-        <v>28646.668030029927</v>
+        <f t="shared" si="19"/>
+        <v>9175.4263445252855</v>
       </c>
       <c r="BW14" s="4">
-        <f t="shared" si="21"/>
-        <v>29506.068070930825</v>
+        <f t="shared" si="19"/>
+        <v>9267.1806079705384</v>
       </c>
       <c r="BX14" s="4">
-        <f t="shared" si="21"/>
-        <v>30391.250113058752</v>
+        <f t="shared" si="19"/>
+        <v>9359.8524140502432</v>
       </c>
       <c r="BY14" s="4">
-        <f t="shared" si="21"/>
-        <v>31302.987616450515</v>
+        <f t="shared" si="19"/>
+        <v>9453.4509381907465</v>
       </c>
       <c r="BZ14" s="4">
-        <f t="shared" si="21"/>
-        <v>32242.07724494403</v>
+        <f t="shared" si="19"/>
+        <v>9547.9854475726534</v>
       </c>
       <c r="CA14" s="4">
-        <f t="shared" si="21"/>
-        <v>33209.339562292349</v>
+        <f t="shared" si="19"/>
+        <v>9643.4653020483802</v>
       </c>
       <c r="CB14" s="4">
-        <f t="shared" si="21"/>
-        <v>34205.619749161124</v>
+        <f t="shared" si="19"/>
+        <v>9739.8999550688641</v>
       </c>
       <c r="CC14" s="4">
-        <f t="shared" si="21"/>
-        <v>35231.788341635962</v>
+        <f t="shared" si="19"/>
+        <v>9837.2989546195531</v>
       </c>
       <c r="CD14" s="4">
-        <f t="shared" si="21"/>
-        <v>36288.741991885043</v>
+        <f t="shared" si="19"/>
+        <v>9935.6719441657478</v>
       </c>
       <c r="CE14" s="4">
-        <f t="shared" si="21"/>
-        <v>37377.404251641594</v>
+        <f t="shared" si="19"/>
+        <v>10035.028663607405</v>
       </c>
       <c r="CF14" s="4">
-        <f t="shared" si="21"/>
-        <v>38498.726379190841</v>
+        <f t="shared" ref="CF14:DM14" si="20">CE14*(1+$V$18)</f>
+        <v>10135.378950243479</v>
       </c>
       <c r="CG14" s="4">
-        <f t="shared" ref="CG14:DM14" si="22">CF14*(1+$V$18)</f>
-        <v>39653.688170566566</v>
+        <f t="shared" si="20"/>
+        <v>10236.732739745914</v>
       </c>
       <c r="CH14" s="4">
-        <f t="shared" si="22"/>
-        <v>40843.298815683564</v>
+        <f t="shared" si="20"/>
+        <v>10339.100067143374</v>
       </c>
       <c r="CI14" s="4">
-        <f t="shared" si="22"/>
-        <v>42068.597780154072</v>
+        <f t="shared" si="20"/>
+        <v>10442.491067814808</v>
       </c>
       <c r="CJ14" s="4">
-        <f t="shared" si="22"/>
-        <v>43330.655713558692</v>
+        <f t="shared" si="20"/>
+        <v>10546.915978492956</v>
       </c>
       <c r="CK14" s="4">
-        <f t="shared" si="22"/>
-        <v>44630.57538496545</v>
+        <f t="shared" si="20"/>
+        <v>10652.385138277887</v>
       </c>
       <c r="CL14" s="4">
-        <f t="shared" si="22"/>
-        <v>45969.492646514416</v>
+        <f t="shared" si="20"/>
+        <v>10758.908989660666</v>
       </c>
       <c r="CM14" s="4">
-        <f t="shared" si="22"/>
-        <v>47348.577425909847</v>
+        <f t="shared" si="20"/>
+        <v>10866.498079557272</v>
       </c>
       <c r="CN14" s="4">
-        <f t="shared" si="22"/>
-        <v>48769.034748687147</v>
+        <f t="shared" si="20"/>
+        <v>10975.163060352845</v>
       </c>
       <c r="CO14" s="4">
-        <f t="shared" si="22"/>
-        <v>50232.105791147762</v>
+        <f t="shared" si="20"/>
+        <v>11084.914690956373</v>
       </c>
       <c r="CP14" s="4">
-        <f t="shared" si="22"/>
-        <v>51739.068964882194</v>
+        <f t="shared" si="20"/>
+        <v>11195.763837865938</v>
       </c>
       <c r="CQ14" s="4">
-        <f t="shared" si="22"/>
-        <v>53291.241033828657</v>
+        <f t="shared" si="20"/>
+        <v>11307.721476244596</v>
       </c>
       <c r="CR14" s="4">
-        <f t="shared" si="22"/>
-        <v>54889.978264843521</v>
+        <f t="shared" si="20"/>
+        <v>11420.798691007043</v>
       </c>
       <c r="CS14" s="4">
-        <f t="shared" si="22"/>
-        <v>56536.67761278883</v>
+        <f t="shared" si="20"/>
+        <v>11535.006677917114</v>
       </c>
       <c r="CT14" s="4">
-        <f t="shared" si="22"/>
-        <v>58232.777941172499</v>
+        <f t="shared" si="20"/>
+        <v>11650.356744696284</v>
       </c>
       <c r="CU14" s="4">
-        <f t="shared" si="22"/>
-        <v>59979.761279407678</v>
+        <f t="shared" si="20"/>
+        <v>11766.860312143248</v>
       </c>
       <c r="CV14" s="4">
-        <f t="shared" si="22"/>
-        <v>61779.154117789913</v>
+        <f t="shared" si="20"/>
+        <v>11884.52891526468</v>
       </c>
       <c r="CW14" s="4">
-        <f t="shared" si="22"/>
-        <v>63632.528741323615</v>
+        <f t="shared" si="20"/>
+        <v>12003.374204417327</v>
       </c>
       <c r="CX14" s="4">
-        <f t="shared" si="22"/>
-        <v>65541.504603563328</v>
+        <f t="shared" si="20"/>
+        <v>12123.407946461501</v>
       </c>
       <c r="CY14" s="4">
-        <f t="shared" si="22"/>
-        <v>67507.749741670224</v>
+        <f t="shared" si="20"/>
+        <v>12244.642025926116</v>
       </c>
       <c r="CZ14" s="4">
-        <f t="shared" si="22"/>
-        <v>69532.982233920338</v>
+        <f t="shared" si="20"/>
+        <v>12367.088446185377</v>
       </c>
       <c r="DA14" s="4">
-        <f t="shared" si="22"/>
-        <v>71618.971700937953</v>
+        <f t="shared" si="20"/>
+        <v>12490.75933064723</v>
       </c>
       <c r="DB14" s="4">
-        <f t="shared" si="22"/>
-        <v>73767.5408519661</v>
+        <f t="shared" si="20"/>
+        <v>12615.666923953702</v>
       </c>
       <c r="DC14" s="4">
-        <f t="shared" si="22"/>
-        <v>75980.567077525091</v>
+        <f t="shared" si="20"/>
+        <v>12741.82359319324</v>
       </c>
       <c r="DD14" s="4">
-        <f t="shared" si="22"/>
-        <v>78259.984089850841</v>
+        <f t="shared" si="20"/>
+        <v>12869.241829125172</v>
       </c>
       <c r="DE14" s="4">
-        <f t="shared" si="22"/>
-        <v>80607.783612546365</v>
+        <f t="shared" si="20"/>
+        <v>12997.934247416424</v>
       </c>
       <c r="DF14" s="4">
-        <f t="shared" si="22"/>
-        <v>83026.017120922756</v>
+        <f t="shared" si="20"/>
+        <v>13127.913589890588</v>
       </c>
       <c r="DG14" s="4">
-        <f t="shared" si="22"/>
-        <v>85516.797634550443</v>
+        <f t="shared" si="20"/>
+        <v>13259.192725789493</v>
       </c>
       <c r="DH14" s="4">
-        <f t="shared" si="22"/>
-        <v>88082.301563586952</v>
+        <f t="shared" si="20"/>
+        <v>13391.784653047389</v>
       </c>
       <c r="DI14" s="4">
-        <f t="shared" si="22"/>
-        <v>90724.770610494568</v>
+        <f t="shared" si="20"/>
+        <v>13525.702499577863</v>
       </c>
       <c r="DJ14" s="4">
-        <f t="shared" si="22"/>
-        <v>93446.513728809412</v>
+        <f t="shared" si="20"/>
+        <v>13660.959524573642</v>
       </c>
       <c r="DK14" s="4">
-        <f t="shared" si="22"/>
-        <v>96249.909140673699</v>
+        <f t="shared" si="20"/>
+        <v>13797.569119819378</v>
       </c>
       <c r="DL14" s="4">
-        <f t="shared" si="22"/>
-        <v>99137.406414893907</v>
+        <f t="shared" si="20"/>
+        <v>13935.544811017571</v>
       </c>
       <c r="DM14" s="4">
-        <f t="shared" si="22"/>
-        <v>102111.52860734073</v>
+        <f t="shared" si="20"/>
+        <v>14074.900259127748</v>
       </c>
     </row>
     <row r="15" spans="1:117" x14ac:dyDescent="0.2">
@@ -1609,32 +1618,32 @@
         <v>-2.1956026674019382</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" ref="M15:N15" si="23">M14/M16</f>
+        <f t="shared" ref="M15:N15" si="21">M14/M16</f>
         <v>-2.7319598217036747</v>
       </c>
       <c r="N15" s="8">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>5.4978501376878111</v>
       </c>
       <c r="O15" s="8">
-        <f t="shared" ref="O15" si="24">O14/O16</f>
-        <v>9.0682261703463958</v>
+        <f t="shared" ref="O15" si="22">O14/O16</f>
+        <v>8.0635799362288054</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" ref="P15" si="25">P14/P16</f>
-        <v>12.286327822177411</v>
+        <f t="shared" ref="P15" si="23">P14/P16</f>
+        <v>10.967060977374278</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" ref="Q15" si="26">Q14/Q16</f>
-        <v>15.672066748246387</v>
+        <f t="shared" ref="Q15" si="24">Q14/Q16</f>
+        <v>14.710569402646518</v>
       </c>
       <c r="R15" s="8">
-        <f t="shared" ref="R15" si="27">R14/R16</f>
-        <v>20.743445364430251</v>
+        <f t="shared" ref="R15" si="25">R14/R16</f>
+        <v>19.512484280510073</v>
       </c>
       <c r="S15" s="8">
-        <f t="shared" ref="S15" si="28">S14/S16</f>
-        <v>27.231865410465879</v>
+        <f t="shared" ref="S15" si="26">S14/S16</f>
+        <v>25.644918942082423</v>
       </c>
     </row>
     <row r="16" spans="1:117" x14ac:dyDescent="0.2">
@@ -1668,10 +1677,10 @@
     </row>
     <row r="17" spans="1:125" x14ac:dyDescent="0.2">
       <c r="U17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V17" s="9">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:125" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1688,94 +1697,94 @@
         <v>0.18313580433305665</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" ref="O18:S18" si="29">O2/N2-1</f>
+        <f t="shared" ref="O18:S18" si="27">O2/N2-1</f>
         <v>0.18999999999999995</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="R18" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="S18" s="6">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="U18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V18" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="N19" s="7">
+        <f t="shared" ref="N19:S19" si="28">N18/M18-1</f>
+        <v>0.41291682724589074</v>
+      </c>
+      <c r="O19" s="7">
+        <f t="shared" si="28"/>
+        <v>3.7481450948061656E-2</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="V18" s="9">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="19" spans="1:125" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="7">
-        <f>L13/L12</f>
-        <v>-0.16216216216216217</v>
-      </c>
-      <c r="M19" s="7">
-        <f t="shared" ref="M19:N19" si="30">M13/M12</f>
-        <v>-5.3465346534653464E-2</v>
-      </c>
-      <c r="N19" s="7">
-        <f t="shared" si="30"/>
-        <v>0.15137956748695003</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0.19</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="V19" s="9">
         <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:125" x14ac:dyDescent="0.2">
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
       <c r="U20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V20" s="2">
         <f>NPV(V19,O28:XFD28)+main!D5-main!D6</f>
-        <v>184629.16534028438</v>
+        <v>168959.28299226935</v>
       </c>
     </row>
     <row r="21" spans="1:125" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L21" s="6">
         <f>L4/L2</f>
         <v>0.2495096785196555</v>
       </c>
       <c r="M21" s="6">
-        <f t="shared" ref="M21:N21" si="31">M4/M2</f>
+        <f>M4/M2</f>
         <v>0.25643541934022795</v>
       </c>
       <c r="N21" s="6">
-        <f t="shared" si="31"/>
+        <f>N4/N2</f>
         <v>0.30141006827027372</v>
       </c>
       <c r="O21" s="6">
@@ -1783,19 +1792,19 @@
         <v>0.31045237031838196</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" ref="P21:S21" si="32">O21*1.03</f>
+        <f t="shared" ref="P21:S21" si="29">O21*1.03</f>
         <v>0.31976594142793341</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>0.32935891967077141</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>0.33923968726089454</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="32"/>
+        <f t="shared" si="29"/>
         <v>0.34941687787872139</v>
       </c>
       <c r="U21" s="2" t="s">
@@ -1803,56 +1812,56 @@
       </c>
       <c r="V21" s="10">
         <f>V20/main!D3</f>
-        <v>878.17033309210956</v>
+        <v>803.63809017312997</v>
       </c>
     </row>
     <row r="22" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7">
-        <f>L9/L2</f>
+        <f t="shared" ref="L22:S22" si="30">L9/L2</f>
         <v>-5.6195105312526646E-2</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" ref="M22:S22" si="33">M9/M2</f>
+        <f t="shared" si="30"/>
         <v>-3.3668000301955159E-2</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>8.7092451987494421E-2</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>0.10256428252408605</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>0.11811449626746645</v>
       </c>
       <c r="Q22" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>0.13375701786511843</v>
       </c>
       <c r="R22" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>0.1495058425094111</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="33"/>
+        <f t="shared" si="30"/>
         <v>0.16537504846978257</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V22" s="7">
         <f>V21/main!D2-1</f>
-        <v>0.34071806578948016</v>
+        <v>0.22692838194370979</v>
       </c>
     </row>
     <row r="23" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7">
         <f>L28/L2</f>
@@ -1867,40 +1876,40 @@
         <v>0.14572832259299431</v>
       </c>
       <c r="O23" s="7">
-        <f>N23*1.15</f>
-        <v>0.16758757098194343</v>
+        <f>N23*1.2</f>
+        <v>0.17487398711159316</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" ref="P23:S23" si="34">O23*1.15</f>
-        <v>0.19272570662923494</v>
+        <f t="shared" ref="P23:S23" si="31">O23*1.2</f>
+        <v>0.20984878453391179</v>
       </c>
       <c r="Q23" s="7">
-        <f t="shared" si="34"/>
-        <v>0.22163456262362016</v>
+        <f t="shared" si="31"/>
+        <v>0.25181854144069415</v>
       </c>
       <c r="R23" s="7">
-        <f t="shared" si="34"/>
-        <v>0.25487974701716315</v>
+        <f t="shared" si="31"/>
+        <v>0.30218224972883295</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="34"/>
-        <v>0.2931117090697376</v>
+        <f t="shared" si="31"/>
+        <v>0.36261869967459953</v>
       </c>
     </row>
     <row r="24" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L24" s="7">
         <f>L8/L2</f>
         <v>0.30570478383218214</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" ref="M24:N24" si="35">M8/M2</f>
+        <f>M8/M2</f>
         <v>0.29010341964218311</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="35"/>
+        <f>N8/N2</f>
         <v>0.21431761628277929</v>
       </c>
       <c r="O24" s="7">
@@ -1908,25 +1917,25 @@
         <v>0.20788808779429591</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" ref="P24:S24" si="36">O24*(0.97)</f>
+        <f t="shared" ref="P24:S24" si="32">O24*(0.97)</f>
         <v>0.20165144516046701</v>
       </c>
       <c r="Q24" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.19560190180565301</v>
       </c>
       <c r="R24" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.18973384475148342</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>0.1840418294089389</v>
       </c>
     </row>
     <row r="26" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L26" s="2">
         <v>46</v>
@@ -1940,7 +1949,7 @@
     </row>
     <row r="27" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="2">
         <v>25</v>
@@ -1955,463 +1964,463 @@
     <row r="28" spans="1:125" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L28" s="4">
         <f>L26-L27</f>
         <v>21</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" ref="M28:N28" si="37">M26-M27</f>
+        <f t="shared" ref="M28:N28" si="33">M26-M27</f>
         <v>674</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="37"/>
+        <f t="shared" si="33"/>
         <v>2284</v>
       </c>
       <c r="O28" s="4">
         <f>O23*O2</f>
-        <v>3125.6539999999991</v>
+        <v>3261.5519999999992</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" ref="P28:S28" si="38">P23*P2</f>
-        <v>4277.4574989999992</v>
+        <f>P23*P2</f>
+        <v>4657.4962559999994</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="38"/>
-        <v>5853.7005873814978</v>
+        <f>Q23*Q2</f>
+        <v>6650.904653567999</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="38"/>
-        <v>8010.7892538315782</v>
+        <f>R23*R2</f>
+        <v>9497.4918452951006</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="38"/>
-        <v>10962.765093868515</v>
+        <f>S23*S2</f>
+        <v>13562.418355081403</v>
       </c>
       <c r="T28" s="4">
-        <f>S28*(1+$V$18)</f>
-        <v>11291.64804668457</v>
+        <f t="shared" ref="T28:AY28" si="34">S28*(1+$V$18)</f>
+        <v>13698.042538632217</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" ref="U28:CF28" si="39">T28*(1+$V$18)</f>
-        <v>11630.397488085107</v>
+        <f t="shared" si="34"/>
+        <v>13835.022964018539</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="39"/>
-        <v>11979.309412727662</v>
+        <f t="shared" si="34"/>
+        <v>13973.373193658725</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="39"/>
-        <v>12338.688695109491</v>
+        <f t="shared" si="34"/>
+        <v>14113.106925595312</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="39"/>
-        <v>12708.849355962777</v>
+        <f t="shared" si="34"/>
+        <v>14254.237994851264</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" si="39"/>
-        <v>13090.11483664166</v>
+        <f t="shared" si="34"/>
+        <v>14396.780374799777</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="39"/>
-        <v>13482.818281740911</v>
+        <f t="shared" si="34"/>
+        <v>14540.748178547774</v>
       </c>
       <c r="AA28" s="4">
-        <f t="shared" si="39"/>
-        <v>13887.302830193139</v>
+        <f t="shared" si="34"/>
+        <v>14686.155660333252</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="39"/>
-        <v>14303.921915098934</v>
+        <f t="shared" si="34"/>
+        <v>14833.017216936585</v>
       </c>
       <c r="AC28" s="4">
-        <f t="shared" si="39"/>
-        <v>14733.039572551903</v>
+        <f t="shared" si="34"/>
+        <v>14981.347389105951</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="39"/>
-        <v>15175.030759728461</v>
+        <f t="shared" si="34"/>
+        <v>15131.160862997011</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="39"/>
-        <v>15630.281682520315</v>
+        <f t="shared" si="34"/>
+        <v>15282.472471626981</v>
       </c>
       <c r="AF28" s="4">
-        <f t="shared" si="39"/>
-        <v>16099.190132995926</v>
+        <f t="shared" si="34"/>
+        <v>15435.297196343252</v>
       </c>
       <c r="AG28" s="4">
-        <f t="shared" si="39"/>
-        <v>16582.165836985805</v>
+        <f t="shared" si="34"/>
+        <v>15589.650168306685</v>
       </c>
       <c r="AH28" s="4">
-        <f t="shared" si="39"/>
-        <v>17079.63081209538</v>
+        <f t="shared" si="34"/>
+        <v>15745.546669989752</v>
       </c>
       <c r="AI28" s="4">
-        <f t="shared" si="39"/>
-        <v>17592.019736458242</v>
+        <f t="shared" si="34"/>
+        <v>15903.002136689649</v>
       </c>
       <c r="AJ28" s="4">
-        <f t="shared" si="39"/>
-        <v>18119.780328551991</v>
+        <f t="shared" si="34"/>
+        <v>16062.032158056545</v>
       </c>
       <c r="AK28" s="4">
-        <f t="shared" si="39"/>
-        <v>18663.373738408551</v>
+        <f t="shared" si="34"/>
+        <v>16222.65247963711</v>
       </c>
       <c r="AL28" s="4">
-        <f t="shared" si="39"/>
-        <v>19223.274950560808</v>
+        <f t="shared" si="34"/>
+        <v>16384.879004433482</v>
       </c>
       <c r="AM28" s="4">
-        <f t="shared" si="39"/>
-        <v>19799.973199077634</v>
+        <f t="shared" si="34"/>
+        <v>16548.727794477818</v>
       </c>
       <c r="AN28" s="4">
-        <f t="shared" si="39"/>
-        <v>20393.972395049965</v>
+        <f t="shared" si="34"/>
+        <v>16714.215072422598</v>
       </c>
       <c r="AO28" s="4">
-        <f t="shared" si="39"/>
-        <v>21005.791566901466</v>
+        <f t="shared" si="34"/>
+        <v>16881.357223146824</v>
       </c>
       <c r="AP28" s="4">
-        <f t="shared" si="39"/>
-        <v>21635.965313908509</v>
+        <f t="shared" si="34"/>
+        <v>17050.170795378293</v>
       </c>
       <c r="AQ28" s="4">
-        <f t="shared" si="39"/>
-        <v>22285.044273325766</v>
+        <f t="shared" si="34"/>
+        <v>17220.672503332076</v>
       </c>
       <c r="AR28" s="4">
-        <f t="shared" si="39"/>
-        <v>22953.59560152554</v>
+        <f t="shared" si="34"/>
+        <v>17392.879228365397</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="39"/>
-        <v>23642.203469571308</v>
+        <f t="shared" si="34"/>
+        <v>17566.808020649052</v>
       </c>
       <c r="AT28" s="4">
-        <f t="shared" si="39"/>
-        <v>24351.469573658447</v>
+        <f t="shared" si="34"/>
+        <v>17742.476100855543</v>
       </c>
       <c r="AU28" s="4">
-        <f t="shared" si="39"/>
-        <v>25082.013660868201</v>
+        <f t="shared" si="34"/>
+        <v>17919.900861864098</v>
       </c>
       <c r="AV28" s="4">
-        <f t="shared" si="39"/>
-        <v>25834.474070694247</v>
+        <f t="shared" si="34"/>
+        <v>18099.09987048274</v>
       </c>
       <c r="AW28" s="4">
-        <f t="shared" si="39"/>
-        <v>26609.508292815073</v>
+        <f t="shared" si="34"/>
+        <v>18280.090869187567</v>
       </c>
       <c r="AX28" s="4">
-        <f t="shared" si="39"/>
-        <v>27407.793541599527</v>
+        <f t="shared" si="34"/>
+        <v>18462.891777879442</v>
       </c>
       <c r="AY28" s="4">
-        <f t="shared" si="39"/>
-        <v>28230.027347847514</v>
+        <f t="shared" si="34"/>
+        <v>18647.520695658237</v>
       </c>
       <c r="AZ28" s="4">
-        <f t="shared" si="39"/>
-        <v>29076.928168282939</v>
+        <f t="shared" ref="AZ28:CE28" si="35">AY28*(1+$V$18)</f>
+        <v>18833.995902614821</v>
       </c>
       <c r="BA28" s="4">
-        <f t="shared" si="39"/>
-        <v>29949.236013331429</v>
+        <f t="shared" si="35"/>
+        <v>19022.335861640968</v>
       </c>
       <c r="BB28" s="4">
-        <f t="shared" si="39"/>
-        <v>30847.713093731374</v>
+        <f t="shared" si="35"/>
+        <v>19212.559220257379</v>
       </c>
       <c r="BC28" s="4">
-        <f t="shared" si="39"/>
-        <v>31773.144486543315</v>
+        <f t="shared" si="35"/>
+        <v>19404.684812459953</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="39"/>
-        <v>32726.338821139616</v>
+        <f t="shared" si="35"/>
+        <v>19598.731660584552</v>
       </c>
       <c r="BE28" s="4">
-        <f t="shared" si="39"/>
-        <v>33708.128985773808</v>
+        <f t="shared" si="35"/>
+        <v>19794.718977190398</v>
       </c>
       <c r="BF28" s="4">
-        <f t="shared" si="39"/>
-        <v>34719.372855347021</v>
+        <f t="shared" si="35"/>
+        <v>19992.666166962303</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" si="39"/>
-        <v>35760.954041007433</v>
+        <f t="shared" si="35"/>
+        <v>20192.592828631925</v>
       </c>
       <c r="BH28" s="4">
-        <f t="shared" si="39"/>
-        <v>36833.78266223766</v>
+        <f t="shared" si="35"/>
+        <v>20394.518756918245</v>
       </c>
       <c r="BI28" s="4">
-        <f t="shared" si="39"/>
-        <v>37938.796142104788</v>
+        <f t="shared" si="35"/>
+        <v>20598.463944487426</v>
       </c>
       <c r="BJ28" s="4">
-        <f t="shared" si="39"/>
-        <v>39076.960026367931</v>
+        <f t="shared" si="35"/>
+        <v>20804.448583932302</v>
       </c>
       <c r="BK28" s="4">
-        <f t="shared" si="39"/>
-        <v>40249.268827158972</v>
+        <f t="shared" si="35"/>
+        <v>21012.493069771626</v>
       </c>
       <c r="BL28" s="4">
-        <f t="shared" si="39"/>
-        <v>41456.746891973744</v>
+        <f t="shared" si="35"/>
+        <v>21222.618000469341</v>
       </c>
       <c r="BM28" s="4">
-        <f t="shared" si="39"/>
-        <v>42700.449298732958</v>
+        <f t="shared" si="35"/>
+        <v>21434.844180474036</v>
       </c>
       <c r="BN28" s="4">
-        <f t="shared" si="39"/>
-        <v>43981.462777694949</v>
+        <f t="shared" si="35"/>
+        <v>21649.192622278777</v>
       </c>
       <c r="BO28" s="4">
-        <f t="shared" si="39"/>
-        <v>45300.906661025801</v>
+        <f t="shared" si="35"/>
+        <v>21865.684548501566</v>
       </c>
       <c r="BP28" s="4">
-        <f t="shared" si="39"/>
-        <v>46659.933860856574</v>
+        <f t="shared" si="35"/>
+        <v>22084.341393986582</v>
       </c>
       <c r="BQ28" s="4">
-        <f t="shared" si="39"/>
-        <v>48059.731876682272</v>
+        <f t="shared" si="35"/>
+        <v>22305.184807926449</v>
       </c>
       <c r="BR28" s="4">
-        <f t="shared" si="39"/>
-        <v>49501.523832982741</v>
+        <f t="shared" si="35"/>
+        <v>22528.236656005713</v>
       </c>
       <c r="BS28" s="4">
-        <f t="shared" si="39"/>
-        <v>50986.569547972227</v>
+        <f t="shared" si="35"/>
+        <v>22753.519022565772</v>
       </c>
       <c r="BT28" s="4">
-        <f t="shared" si="39"/>
-        <v>52516.166634411398</v>
+        <f t="shared" si="35"/>
+        <v>22981.05421279143</v>
       </c>
       <c r="BU28" s="4">
-        <f t="shared" si="39"/>
-        <v>54091.65163344374</v>
+        <f t="shared" si="35"/>
+        <v>23210.864754919345</v>
       </c>
       <c r="BV28" s="4">
-        <f t="shared" si="39"/>
-        <v>55714.401182447051</v>
+        <f t="shared" si="35"/>
+        <v>23442.973402468539</v>
       </c>
       <c r="BW28" s="4">
-        <f t="shared" si="39"/>
-        <v>57385.833217920466</v>
+        <f t="shared" si="35"/>
+        <v>23677.403136493223</v>
       </c>
       <c r="BX28" s="4">
-        <f t="shared" si="39"/>
-        <v>59107.408214458083</v>
+        <f t="shared" si="35"/>
+        <v>23914.177167858157</v>
       </c>
       <c r="BY28" s="4">
-        <f t="shared" si="39"/>
-        <v>60880.630460891829</v>
+        <f t="shared" si="35"/>
+        <v>24153.318939536737</v>
       </c>
       <c r="BZ28" s="4">
-        <f t="shared" si="39"/>
-        <v>62707.049374718583</v>
+        <f t="shared" si="35"/>
+        <v>24394.852128932103</v>
       </c>
       <c r="CA28" s="4">
-        <f t="shared" si="39"/>
-        <v>64588.260855960143</v>
+        <f t="shared" si="35"/>
+        <v>24638.800650221423</v>
       </c>
       <c r="CB28" s="4">
-        <f t="shared" si="39"/>
-        <v>66525.908681638946</v>
+        <f t="shared" si="35"/>
+        <v>24885.188656723636</v>
       </c>
       <c r="CC28" s="4">
-        <f t="shared" si="39"/>
-        <v>68521.685942088123</v>
+        <f t="shared" si="35"/>
+        <v>25134.040543290874</v>
       </c>
       <c r="CD28" s="4">
-        <f t="shared" si="39"/>
-        <v>70577.336520350771</v>
+        <f t="shared" si="35"/>
+        <v>25385.380948723781</v>
       </c>
       <c r="CE28" s="4">
-        <f t="shared" si="39"/>
-        <v>72694.656615961299</v>
+        <f t="shared" si="35"/>
+        <v>25639.23475821102</v>
       </c>
       <c r="CF28" s="4">
-        <f t="shared" si="39"/>
-        <v>74875.496314440141</v>
+        <f t="shared" ref="CF28:DK28" si="36">CE28*(1+$V$18)</f>
+        <v>25895.62710579313</v>
       </c>
       <c r="CG28" s="4">
-        <f t="shared" ref="CG28:DU28" si="40">CF28*(1+$V$18)</f>
-        <v>77121.76120387335</v>
+        <f t="shared" si="36"/>
+        <v>26154.58337685106</v>
       </c>
       <c r="CH28" s="4">
-        <f t="shared" si="40"/>
-        <v>79435.414039989555</v>
+        <f t="shared" si="36"/>
+        <v>26416.129210619572</v>
       </c>
       <c r="CI28" s="4">
-        <f t="shared" si="40"/>
-        <v>81818.476461189246</v>
+        <f t="shared" si="36"/>
+        <v>26680.290502725769</v>
       </c>
       <c r="CJ28" s="4">
-        <f t="shared" si="40"/>
-        <v>84273.030755024927</v>
+        <f t="shared" si="36"/>
+        <v>26947.093407753026</v>
       </c>
       <c r="CK28" s="4">
-        <f t="shared" si="40"/>
-        <v>86801.221677675683</v>
+        <f t="shared" si="36"/>
+        <v>27216.564341830555</v>
       </c>
       <c r="CL28" s="4">
-        <f t="shared" si="40"/>
-        <v>89405.258328005963</v>
+        <f t="shared" si="36"/>
+        <v>27488.729985248861</v>
       </c>
       <c r="CM28" s="4">
-        <f t="shared" si="40"/>
-        <v>92087.416077846137</v>
+        <f t="shared" si="36"/>
+        <v>27763.617285101351</v>
       </c>
       <c r="CN28" s="4">
-        <f t="shared" si="40"/>
-        <v>94850.038560181521</v>
+        <f t="shared" si="36"/>
+        <v>28041.253457952364</v>
       </c>
       <c r="CO28" s="4">
-        <f t="shared" si="40"/>
-        <v>97695.539716986968</v>
+        <f t="shared" si="36"/>
+        <v>28321.665992531889</v>
       </c>
       <c r="CP28" s="4">
-        <f t="shared" si="40"/>
-        <v>100626.40590849658</v>
+        <f t="shared" si="36"/>
+        <v>28604.882652457207</v>
       </c>
       <c r="CQ28" s="4">
-        <f t="shared" si="40"/>
-        <v>103645.19808575149</v>
+        <f t="shared" si="36"/>
+        <v>28890.93147898178</v>
       </c>
       <c r="CR28" s="4">
-        <f t="shared" si="40"/>
-        <v>106754.55402832404</v>
+        <f t="shared" si="36"/>
+        <v>29179.840793771597</v>
       </c>
       <c r="CS28" s="4">
-        <f t="shared" si="40"/>
-        <v>109957.19064917376</v>
+        <f t="shared" si="36"/>
+        <v>29471.639201709313</v>
       </c>
       <c r="CT28" s="4">
-        <f t="shared" si="40"/>
-        <v>113255.90636864898</v>
+        <f t="shared" si="36"/>
+        <v>29766.355593726406</v>
       </c>
       <c r="CU28" s="4">
-        <f t="shared" si="40"/>
-        <v>116653.58355970845</v>
+        <f t="shared" si="36"/>
+        <v>30064.019149663669</v>
       </c>
       <c r="CV28" s="4">
-        <f t="shared" si="40"/>
-        <v>120153.19106649971</v>
+        <f t="shared" si="36"/>
+        <v>30364.659341160306</v>
       </c>
       <c r="CW28" s="4">
-        <f t="shared" si="40"/>
-        <v>123757.78679849471</v>
+        <f t="shared" si="36"/>
+        <v>30668.305934571908</v>
       </c>
       <c r="CX28" s="4">
-        <f t="shared" si="40"/>
-        <v>127470.52040244955</v>
+        <f t="shared" si="36"/>
+        <v>30974.988993917628</v>
       </c>
       <c r="CY28" s="4">
-        <f t="shared" si="40"/>
-        <v>131294.63601452304</v>
+        <f t="shared" si="36"/>
+        <v>31284.738883856804</v>
       </c>
       <c r="CZ28" s="4">
-        <f t="shared" si="40"/>
-        <v>135233.47509495873</v>
+        <f t="shared" si="36"/>
+        <v>31597.586272695371</v>
       </c>
       <c r="DA28" s="4">
-        <f t="shared" si="40"/>
-        <v>139290.4793478075</v>
+        <f t="shared" si="36"/>
+        <v>31913.562135422326</v>
       </c>
       <c r="DB28" s="4">
-        <f t="shared" si="40"/>
-        <v>143469.19372824172</v>
+        <f t="shared" si="36"/>
+        <v>32232.69775677655</v>
       </c>
       <c r="DC28" s="4">
-        <f t="shared" si="40"/>
-        <v>147773.26954008898</v>
+        <f t="shared" si="36"/>
+        <v>32555.024734344315</v>
       </c>
       <c r="DD28" s="4">
-        <f t="shared" si="40"/>
-        <v>152206.46762629165</v>
+        <f t="shared" si="36"/>
+        <v>32880.574981687758</v>
       </c>
       <c r="DE28" s="4">
-        <f t="shared" si="40"/>
-        <v>156772.66165508039</v>
+        <f t="shared" si="36"/>
+        <v>33209.380731504636</v>
       </c>
       <c r="DF28" s="4">
-        <f t="shared" si="40"/>
-        <v>161475.84150473282</v>
+        <f t="shared" si="36"/>
+        <v>33541.474538819682</v>
       </c>
       <c r="DG28" s="4">
-        <f t="shared" si="40"/>
-        <v>166320.11674987481</v>
+        <f t="shared" si="36"/>
+        <v>33876.889284207879</v>
       </c>
       <c r="DH28" s="4">
-        <f t="shared" si="40"/>
-        <v>171309.72025237107</v>
+        <f t="shared" si="36"/>
+        <v>34215.658177049954</v>
       </c>
       <c r="DI28" s="4">
-        <f t="shared" si="40"/>
-        <v>176449.0118599422</v>
+        <f t="shared" si="36"/>
+        <v>34557.814758820452</v>
       </c>
       <c r="DJ28" s="4">
-        <f t="shared" si="40"/>
-        <v>181742.48221574046</v>
+        <f t="shared" si="36"/>
+        <v>34903.392906408655</v>
       </c>
       <c r="DK28" s="4">
-        <f t="shared" si="40"/>
-        <v>187194.75668221267</v>
+        <f t="shared" si="36"/>
+        <v>35252.426835472739</v>
       </c>
       <c r="DL28" s="4">
-        <f t="shared" si="40"/>
-        <v>192810.59938267907</v>
+        <f t="shared" ref="DL28:DU28" si="37">DK28*(1+$V$18)</f>
+        <v>35604.951103827465</v>
       </c>
       <c r="DM28" s="4">
-        <f t="shared" si="40"/>
-        <v>198594.91736415945</v>
+        <f t="shared" si="37"/>
+        <v>35961.000614865741</v>
       </c>
       <c r="DN28" s="4">
-        <f t="shared" si="40"/>
-        <v>204552.76488508424</v>
+        <f t="shared" si="37"/>
+        <v>36320.610621014399</v>
       </c>
       <c r="DO28" s="4">
-        <f t="shared" si="40"/>
-        <v>210689.34783163678</v>
+        <f t="shared" si="37"/>
+        <v>36683.816727224541</v>
       </c>
       <c r="DP28" s="4">
-        <f t="shared" si="40"/>
-        <v>217010.0282665859</v>
+        <f t="shared" si="37"/>
+        <v>37050.654894496787</v>
       </c>
       <c r="DQ28" s="4">
-        <f t="shared" si="40"/>
-        <v>223520.32911458347</v>
+        <f t="shared" si="37"/>
+        <v>37421.161443441757</v>
       </c>
       <c r="DR28" s="4">
-        <f t="shared" si="40"/>
-        <v>230225.93898802096</v>
+        <f t="shared" si="37"/>
+        <v>37795.373057876175</v>
       </c>
       <c r="DS28" s="4">
-        <f t="shared" si="40"/>
-        <v>237132.71715766159</v>
+        <f t="shared" si="37"/>
+        <v>38173.326788454935</v>
       </c>
       <c r="DT28" s="4">
-        <f t="shared" si="40"/>
-        <v>244246.69867239145</v>
+        <f t="shared" si="37"/>
+        <v>38555.060056339484</v>
       </c>
       <c r="DU28" s="4">
-        <f t="shared" si="40"/>
-        <v>251574.09963256319</v>
+        <f t="shared" si="37"/>
+        <v>38940.610656902878</v>
       </c>
     </row>
     <row r="29" spans="1:125" x14ac:dyDescent="0.2">
@@ -2426,7 +2435,7 @@
     </row>
     <row r="30" spans="1:125" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
         <f>G32-G34</f>
@@ -2437,11 +2446,11 @@
         <v>7384</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" ref="I30:J30" si="41">H30+I14</f>
+        <f>H30+I14</f>
         <v>7384</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="41"/>
+        <f>I30+J14</f>
         <v>7384</v>
       </c>
       <c r="N30" s="2">
@@ -2450,23 +2459,23 @@
       </c>
       <c r="O30" s="2">
         <f>N30+O14</f>
-        <v>9261.0321350000013</v>
+        <v>9053.0804110000008</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" ref="P30:S30" si="42">O30+P14</f>
-        <v>11804.179130912504</v>
+        <f>O30+P14</f>
+        <v>11323.152362706704</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" si="42"/>
-        <v>15048.140227132024</v>
+        <f>P30+Q14</f>
+        <v>14368.093123360506</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="42"/>
-        <v>19341.825983115443</v>
+        <f>Q30+R14</f>
+        <v>18406.982244583287</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" si="42"/>
-        <v>24978.549804427777</v>
+        <f>R30+S14</f>
+        <v>23715.224016404929</v>
       </c>
     </row>
     <row r="32" spans="1:125" x14ac:dyDescent="0.2">
